--- a/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="264">
   <si>
     <t>API Mode</t>
   </si>
@@ -807,6 +807,33 @@
   </si>
   <si>
     <t>RMA-J098-1-3</t>
+  </si>
+  <si>
+    <t>RMA-8XKB-001</t>
+  </si>
+  <si>
+    <t>RMA-8XKB-002</t>
+  </si>
+  <si>
+    <t>RMA-8XKB-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL0iAAE</t>
+  </si>
+  <si>
+    <t>RMA-8XKB-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL0jAAE</t>
+  </si>
+  <si>
+    <t>RMA-8XKB-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL0kAAE</t>
+  </si>
+  <si>
+    <t>RMA-8XKB-1-3</t>
   </si>
 </sst>
 </file>
@@ -816,7 +843,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="255" x14ac:knownFonts="1">
+  <fonts count="267" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -836,6 +863,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2358,7 +2457,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="127">
+  <borders count="133">
     <border>
       <left/>
       <right/>
@@ -2744,11 +2843,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="255">
+  <cellXfs count="267">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -3002,8 +3119,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="124" fillId="0" fontId="250" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="251" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="125" fillId="0" fontId="252" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="254" fillId="0" borderId="126" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="253" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="126" fillId="0" fontId="254" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="255" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="127" fillId="0" fontId="256" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="257" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="128" fillId="0" fontId="258" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="259" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="129" fillId="0" fontId="260" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="261" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="130" fillId="0" fontId="262" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="263" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="131" fillId="0" fontId="264" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="266" fillId="0" borderId="132" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3791,11 +3920,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.6796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.23046875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="11.4921875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.19921875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.15625" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -3845,10 +3974,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="F2" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
@@ -3857,7 +3986,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3874,10 +4003,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="F3" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="G3" t="s">
         <v>68</v>
@@ -3886,7 +4015,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3903,10 +4032,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F4" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="G4" t="s">
         <v>68</v>
@@ -3915,7 +4044,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="282">
   <si>
     <t>API Mode</t>
   </si>
@@ -834,6 +834,60 @@
   </si>
   <si>
     <t>RMA-8XKB-1-3</t>
+  </si>
+  <si>
+    <t>RMA-3STF-001</t>
+  </si>
+  <si>
+    <t>RMA-3STF-002</t>
+  </si>
+  <si>
+    <t>RMA-3STF-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL2PAAU</t>
+  </si>
+  <si>
+    <t>RMA-3STF-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL2QAAU</t>
+  </si>
+  <si>
+    <t>RMA-3STF-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL2RAAU</t>
+  </si>
+  <si>
+    <t>RMA-3STF-1-3</t>
+  </si>
+  <si>
+    <t>RMA-MG41-001</t>
+  </si>
+  <si>
+    <t>RMA-MG41-002</t>
+  </si>
+  <si>
+    <t>RMA-MG41-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL33AAE</t>
+  </si>
+  <si>
+    <t>RMA-MG41-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL34AAE</t>
+  </si>
+  <si>
+    <t>RMA-MG41-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL35AAE</t>
+  </si>
+  <si>
+    <t>RMA-MG41-1-3</t>
   </si>
 </sst>
 </file>
@@ -843,7 +897,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="267" x14ac:knownFonts="1">
+  <fonts count="291" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -863,6 +917,150 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2457,7 +2655,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="133">
+  <borders count="145">
     <border>
       <left/>
       <right/>
@@ -2861,11 +3059,47 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="291">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -3131,8 +3365,32 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="130" fillId="0" fontId="262" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="263" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="131" fillId="0" fontId="264" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="266" fillId="0" borderId="132" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="265" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="132" fillId="0" fontId="266" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="267" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="133" fillId="0" fontId="268" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="269" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="134" fillId="0" fontId="270" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="271" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="135" fillId="0" fontId="272" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="273" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="136" fillId="0" fontId="274" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="275" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="137" fillId="0" fontId="276" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="277" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="138" fillId="0" fontId="278" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="279" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="139" fillId="0" fontId="280" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="281" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="140" fillId="0" fontId="282" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="283" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="141" fillId="0" fontId="284" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="285" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="142" fillId="0" fontId="286" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="287" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="143" fillId="0" fontId="288" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="290" fillId="0" borderId="144" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3919,12 +4177,12 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="39.7578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.23046875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.57421875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.1328125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="11.4921875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.15625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.26953125" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -3974,10 +4232,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="F2" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
@@ -3986,7 +4244,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4003,10 +4261,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="F3" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="G3" t="s">
         <v>68</v>
@@ -4015,7 +4273,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4032,10 +4290,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="F4" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="G4" t="s">
         <v>68</v>
@@ -4044,7 +4302,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="291">
   <si>
     <t>API Mode</t>
   </si>
@@ -888,6 +888,33 @@
   </si>
   <si>
     <t>RMA-MG41-1-3</t>
+  </si>
+  <si>
+    <t>RMA-K0R5-001</t>
+  </si>
+  <si>
+    <t>RMA-K0R5-002</t>
+  </si>
+  <si>
+    <t>RMA-K0R5-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL67AAE</t>
+  </si>
+  <si>
+    <t>RMA-K0R5-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL68AAE</t>
+  </si>
+  <si>
+    <t>RMA-K0R5-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL69AAE</t>
+  </si>
+  <si>
+    <t>RMA-K0R5-1-3</t>
   </si>
 </sst>
 </file>
@@ -897,7 +924,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="291" x14ac:knownFonts="1">
+  <fonts count="303" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -917,6 +944,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2655,7 +2754,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="145">
+  <borders count="151">
     <border>
       <left/>
       <right/>
@@ -3095,11 +3194,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="303">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -3389,8 +3506,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="142" fillId="0" fontId="286" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="287" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="143" fillId="0" fontId="288" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="290" fillId="0" borderId="144" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="289" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="144" fillId="0" fontId="290" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="291" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="145" fillId="0" fontId="292" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="293" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="146" fillId="0" fontId="294" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="295" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="147" fillId="0" fontId="296" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="297" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="148" fillId="0" fontId="298" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="299" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="149" fillId="0" fontId="300" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="302" fillId="0" borderId="150" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -4177,8 +4306,8 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="39.7578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.57421875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.1328125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.203125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="11.4921875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
@@ -4232,10 +4361,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="F2" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
@@ -4244,7 +4373,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4261,10 +4390,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="F3" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="G3" t="s">
         <v>68</v>
@@ -4273,7 +4402,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4290,10 +4419,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="F4" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="G4" t="s">
         <v>68</v>
@@ -4302,7 +4431,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="300">
   <si>
     <t>API Mode</t>
   </si>
@@ -915,6 +915,33 @@
   </si>
   <si>
     <t>RMA-K0R5-1-3</t>
+  </si>
+  <si>
+    <t>RMA-TYCL-001</t>
+  </si>
+  <si>
+    <t>RMA-TYCL-002</t>
+  </si>
+  <si>
+    <t>RMA-TYCL-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL7KAAU</t>
+  </si>
+  <si>
+    <t>RMA-TYCL-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL7LAAU</t>
+  </si>
+  <si>
+    <t>RMA-TYCL-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL7MAAU</t>
+  </si>
+  <si>
+    <t>RMA-TYCL-1-3</t>
   </si>
 </sst>
 </file>
@@ -924,7 +951,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="303" x14ac:knownFonts="1">
+  <fonts count="315" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -944,6 +971,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2754,7 +2853,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="151">
+  <borders count="157">
     <border>
       <left/>
       <right/>
@@ -3212,11 +3311,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="303">
+  <cellXfs count="315">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -3518,8 +3635,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="148" fillId="0" fontId="298" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="299" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="149" fillId="0" fontId="300" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="302" fillId="0" borderId="150" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="301" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="150" fillId="0" fontId="302" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="303" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="151" fillId="0" fontId="304" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="305" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="152" fillId="0" fontId="306" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="307" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="153" fillId="0" fontId="308" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="309" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="154" fillId="0" fontId="310" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="311" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="155" fillId="0" fontId="312" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="314" fillId="0" borderId="156" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -4307,11 +4436,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="11.4921875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.26953125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.37109375" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -4361,10 +4490,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="F2" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
@@ -4373,7 +4502,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4390,10 +4519,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="F3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="G3" t="s">
         <v>68</v>
@@ -4402,7 +4531,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4419,10 +4548,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="F4" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="G4" t="s">
         <v>68</v>
@@ -4431,7 +4560,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
